--- a/PROYECTOS 22808.xlsx
+++ b/PROYECTOS 22808.xlsx
@@ -998,10 +998,10 @@
     <t>Aun en desarrollo las cards de tarjetas de crédito de presentación</t>
   </si>
   <si>
-    <t>https://natiba.github.io/andor-album-final/</t>
+    <t>Mis proyectos:</t>
   </si>
   <si>
-    <t xml:space="preserve"> React album (seguira avanzando)</t>
+    <t>Info:</t>
   </si>
   <si>
     <t>Gabriela E</t>
@@ -1011,7 +1011,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1050,6 +1050,23 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFB83AB1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFB83AB1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1245,7 +1262,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1351,12 +1368,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2425,16 +2451,16 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <v>3.0</v>
       </c>
       <c r="E24" s="7"/>
@@ -2533,16 +2559,16 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <v>3.0</v>
       </c>
       <c r="E27" s="7"/>
@@ -2605,16 +2631,16 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <v>3.0</v>
       </c>
       <c r="E29" s="7"/>
@@ -2677,16 +2703,16 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="10">
         <v>3.0</v>
       </c>
       <c r="E31" s="7"/>
@@ -2713,40 +2739,40 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="24">
         <v>3.0</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="4" t="s">
@@ -4693,16 +4719,16 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="20">
         <v>9.0</v>
       </c>
       <c r="E87" s="7"/>
@@ -4909,16 +4935,16 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D93" s="10">
         <v>9.0</v>
       </c>
       <c r="E93" s="7"/>
@@ -32678,11 +32704,11 @@
         <v>196</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E67" s="37" t="str">
         <f>IFERROR(VLOOKUP(D67,X3:Y11,2,FALSE),"")</f>
-        <v>Buscador de cartas de Magic the Gathering, hace fetch a una API para devolver los resultados.</v>
+        <v>Calculadora de gastos hecha con React.</v>
       </c>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
@@ -33285,19 +33311,19 @@
       <c r="Z84" s="28"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="D85" s="33" t="s">
+      <c r="D85" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="41" t="s">
         <v>313</v>
       </c>
       <c r="F85" s="28"/>
@@ -59025,6 +59051,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Desplegá para ver proyectos." sqref="D67">
       <formula1>$X$3:$X$11</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E85">
+      <formula1>"Info:,1- Entrega Codo full Python sin DB,2- Album con React (seguirá avanzando),3- Entrega Acámica Landpage,4-"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D85">
+      <formula1>"Mis proyectos:,https://music-coachella-natiba.netlify.app/,https://natiba.github.io/andor-album-final/,elemento https://landpage-nat.netlify.app/,elemento 4"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="X3"/>
@@ -59040,11 +59072,10 @@
     <hyperlink r:id="rId11" ref="D28"/>
     <hyperlink r:id="rId12" ref="E28"/>
     <hyperlink r:id="rId13" ref="D67"/>
-    <hyperlink r:id="rId14" ref="D85"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/PROYECTOS 22808.xlsx
+++ b/PROYECTOS 22808.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="317">
   <si>
     <t>Dirección de correo electrónico</t>
   </si>
@@ -982,6 +982,12 @@
     </r>
   </si>
   <si>
+    <t>https://karenpigni.000webhostapp.com/</t>
+  </si>
+  <si>
+    <t>Página personal (portfolio)</t>
+  </si>
+  <si>
     <t>leancapacitacion@gmail.com</t>
   </si>
   <si>
@@ -1049,18 +1055,18 @@
     <font>
       <u/>
       <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FFB83AB1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1262,7 +1268,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1361,23 +1367,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2415,16 +2427,16 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <v>3.0</v>
       </c>
       <c r="E23" s="7"/>
@@ -2523,40 +2535,40 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>3.0</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="8" t="s">
@@ -32019,8 +32031,12 @@
       <c r="C47" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
+      <c r="D47" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>308</v>
+      </c>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
@@ -32215,13 +32231,13 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
@@ -32326,10 +32342,10 @@
         <v>164</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>313</v>
       </c>
       <c r="F56" s="28"/>
       <c r="G56" s="28"/>
@@ -32694,43 +32710,43 @@
       <c r="Z66" s="28"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="D67" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="E67" s="37" t="str">
+      <c r="D67" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="E67" s="39" t="str">
         <f>IFERROR(VLOOKUP(D67,X3:Y11,2,FALSE),"")</f>
-        <v>Calculadora de gastos hecha con React.</v>
-      </c>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="35"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
-      <c r="Y67" s="35"/>
-      <c r="Z67" s="35"/>
+        <v>Landing Page hecha con HTML/CSS/JS/PHP</v>
+      </c>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="37"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="3" t="s">
@@ -33048,7 +33064,7 @@
       <c r="C77" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D77" s="38"/>
+      <c r="D77" s="40"/>
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
       <c r="G77" s="28"/>
@@ -33311,20 +33327,20 @@
       <c r="Z84" s="28"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="D85" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="E85" s="41" t="s">
-        <v>313</v>
+      <c r="D85" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="E85" s="43" t="s">
+        <v>315</v>
       </c>
       <c r="F85" s="28"/>
       <c r="G85" s="28"/>
@@ -33761,7 +33777,7 @@
         <v>55</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>57</v>
@@ -59071,11 +59087,12 @@
     <hyperlink r:id="rId10" ref="Y11"/>
     <hyperlink r:id="rId11" ref="D28"/>
     <hyperlink r:id="rId12" ref="E28"/>
-    <hyperlink r:id="rId13" ref="D67"/>
+    <hyperlink r:id="rId13" ref="D47"/>
+    <hyperlink r:id="rId14" ref="D67"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
--- a/PROYECTOS 22808.xlsx
+++ b/PROYECTOS 22808.xlsx
@@ -2499,16 +2499,16 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="10">
         <v>3.0</v>
       </c>
       <c r="E25" s="7"/>

--- a/PROYECTOS 22808.xlsx
+++ b/PROYECTOS 22808.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="319">
   <si>
     <t>Dirección de correo electrónico</t>
   </si>
@@ -960,6 +960,12 @@
     </r>
   </si>
   <si>
+    <t>https://listadeinstrumentos.000webhostapp.com/</t>
+  </si>
+  <si>
+    <t>Trabajo práctico final (CRUD) para el curso de PHP full stack de Codo a Codo que realicé en el 2020</t>
+  </si>
+  <si>
     <t>https://www.fom78.com.ar/</t>
   </si>
   <si>
@@ -30403,7 +30409,7 @@
     <col customWidth="1" min="1" max="1" width="31.71"/>
     <col customWidth="1" min="2" max="2" width="17.29"/>
     <col customWidth="1" min="3" max="3" width="19.71"/>
-    <col customWidth="1" min="4" max="4" width="34.71"/>
+    <col customWidth="1" min="4" max="4" width="45.0"/>
     <col customWidth="1" min="5" max="5" width="51.71"/>
     <col customWidth="1" min="6" max="6" width="11.57"/>
     <col customWidth="1" min="7" max="23" width="10.71"/>
@@ -31347,8 +31353,12 @@
       <c r="C27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="D27" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>306</v>
+      </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -31382,10 +31392,10 @@
         <v>87</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -32032,10 +32042,10 @@
         <v>143</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
@@ -32231,13 +32241,13 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
@@ -32342,10 +32352,10 @@
         <v>164</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F56" s="28"/>
       <c r="G56" s="28"/>
@@ -33337,10 +33347,10 @@
         <v>248</v>
       </c>
       <c r="D85" s="42" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E85" s="43" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F85" s="28"/>
       <c r="G85" s="28"/>
@@ -33777,7 +33787,7 @@
         <v>55</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>57</v>
@@ -59085,14 +59095,15 @@
     <hyperlink r:id="rId8" ref="X10"/>
     <hyperlink r:id="rId9" ref="X11"/>
     <hyperlink r:id="rId10" ref="Y11"/>
-    <hyperlink r:id="rId11" ref="D28"/>
-    <hyperlink r:id="rId12" ref="E28"/>
-    <hyperlink r:id="rId13" ref="D47"/>
-    <hyperlink r:id="rId14" ref="D67"/>
+    <hyperlink r:id="rId11" ref="D27"/>
+    <hyperlink r:id="rId12" ref="D28"/>
+    <hyperlink r:id="rId13" ref="E28"/>
+    <hyperlink r:id="rId14" ref="D47"/>
+    <hyperlink r:id="rId15" ref="D67"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
--- a/PROYECTOS 22808.xlsx
+++ b/PROYECTOS 22808.xlsx
@@ -1010,10 +1010,10 @@
     <t>Aun en desarrollo las cards de tarjetas de crédito de presentación</t>
   </si>
   <si>
-    <t>Mis proyectos:</t>
+    <t>elemento 4</t>
   </si>
   <si>
-    <t>Info:</t>
+    <t>1- Entrega Codo full Python sin DB</t>
   </si>
   <si>
     <t>Gabriela E</t>
@@ -1023,7 +1023,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1073,6 +1073,12 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FFB83AB1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1398,7 +1404,7 @@
     <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>

--- a/PROYECTOS 22808.xlsx
+++ b/PROYECTOS 22808.xlsx
@@ -1067,7 +1067,7 @@
     <font>
       <u/>
       <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
